--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_139.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_139.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33043-d78016-Reviews-Country_Inn_Suites_by_Radisson_John_Wayne_Airport_CA-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>358</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>372</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Country-Inn-Suites-By-Radisson.h12765572.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_139.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_139.xlsx
@@ -6021,7 +6021,7 @@
         <v>3932</v>
       </c>
       <c r="B2" t="n">
-        <v>131787</v>
+        <v>162561</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -6088,7 +6088,7 @@
         <v>3932</v>
       </c>
       <c r="B3" t="n">
-        <v>131788</v>
+        <v>162562</v>
       </c>
       <c r="C3" t="s">
         <v>56</v>
@@ -6163,7 +6163,7 @@
         <v>3932</v>
       </c>
       <c r="B4" t="n">
-        <v>131789</v>
+        <v>162563</v>
       </c>
       <c r="C4" t="s">
         <v>65</v>
@@ -6238,7 +6238,7 @@
         <v>3932</v>
       </c>
       <c r="B5" t="n">
-        <v>131790</v>
+        <v>162564</v>
       </c>
       <c r="C5" t="s">
         <v>74</v>
@@ -6309,7 +6309,7 @@
         <v>3932</v>
       </c>
       <c r="B6" t="n">
-        <v>131791</v>
+        <v>162565</v>
       </c>
       <c r="C6" t="s">
         <v>84</v>
@@ -6374,7 +6374,7 @@
         <v>3932</v>
       </c>
       <c r="B7" t="n">
-        <v>131792</v>
+        <v>162566</v>
       </c>
       <c r="C7" t="s">
         <v>93</v>
@@ -6504,7 +6504,7 @@
         <v>3932</v>
       </c>
       <c r="B9" t="n">
-        <v>131793</v>
+        <v>162567</v>
       </c>
       <c r="C9" t="s">
         <v>110</v>
@@ -6575,7 +6575,7 @@
         <v>3932</v>
       </c>
       <c r="B10" t="n">
-        <v>131794</v>
+        <v>162568</v>
       </c>
       <c r="C10" t="s">
         <v>117</v>
@@ -6646,7 +6646,7 @@
         <v>3932</v>
       </c>
       <c r="B11" t="n">
-        <v>131795</v>
+        <v>162569</v>
       </c>
       <c r="C11" t="s">
         <v>124</v>
@@ -6717,7 +6717,7 @@
         <v>3932</v>
       </c>
       <c r="B12" t="n">
-        <v>131796</v>
+        <v>162570</v>
       </c>
       <c r="C12" t="s">
         <v>130</v>
@@ -6849,7 +6849,7 @@
         <v>3932</v>
       </c>
       <c r="B14" t="n">
-        <v>131797</v>
+        <v>162571</v>
       </c>
       <c r="C14" t="s">
         <v>142</v>
@@ -6920,7 +6920,7 @@
         <v>3932</v>
       </c>
       <c r="B15" t="n">
-        <v>131798</v>
+        <v>162572</v>
       </c>
       <c r="C15" t="s">
         <v>149</v>
@@ -6991,7 +6991,7 @@
         <v>3932</v>
       </c>
       <c r="B16" t="n">
-        <v>131799</v>
+        <v>162573</v>
       </c>
       <c r="C16" t="s">
         <v>158</v>
@@ -7124,7 +7124,7 @@
         <v>3932</v>
       </c>
       <c r="B18" t="n">
-        <v>131800</v>
+        <v>162574</v>
       </c>
       <c r="C18" t="s">
         <v>169</v>
@@ -7185,7 +7185,7 @@
         <v>3932</v>
       </c>
       <c r="B19" t="n">
-        <v>131801</v>
+        <v>162575</v>
       </c>
       <c r="C19" t="s">
         <v>175</v>
@@ -7242,7 +7242,7 @@
         <v>3932</v>
       </c>
       <c r="B20" t="n">
-        <v>131802</v>
+        <v>162576</v>
       </c>
       <c r="C20" t="s">
         <v>181</v>
@@ -7378,7 +7378,7 @@
         <v>3932</v>
       </c>
       <c r="B22" t="n">
-        <v>131803</v>
+        <v>162577</v>
       </c>
       <c r="C22" t="s">
         <v>195</v>
@@ -7501,7 +7501,7 @@
         <v>3932</v>
       </c>
       <c r="B24" t="n">
-        <v>131804</v>
+        <v>162578</v>
       </c>
       <c r="C24" t="s">
         <v>206</v>
@@ -7643,7 +7643,7 @@
         <v>3932</v>
       </c>
       <c r="B26" t="n">
-        <v>131805</v>
+        <v>162579</v>
       </c>
       <c r="C26" t="s">
         <v>221</v>
@@ -7708,7 +7708,7 @@
         <v>3932</v>
       </c>
       <c r="B27" t="n">
-        <v>131806</v>
+        <v>162580</v>
       </c>
       <c r="C27" t="s">
         <v>230</v>
@@ -7775,7 +7775,7 @@
         <v>3932</v>
       </c>
       <c r="B28" t="n">
-        <v>131807</v>
+        <v>162581</v>
       </c>
       <c r="C28" t="s">
         <v>236</v>
@@ -7911,7 +7911,7 @@
         <v>3932</v>
       </c>
       <c r="B30" t="n">
-        <v>131808</v>
+        <v>162582</v>
       </c>
       <c r="C30" t="s">
         <v>249</v>
@@ -7978,7 +7978,7 @@
         <v>3932</v>
       </c>
       <c r="B31" t="n">
-        <v>131809</v>
+        <v>162583</v>
       </c>
       <c r="C31" t="s">
         <v>255</v>
@@ -8049,7 +8049,7 @@
         <v>3932</v>
       </c>
       <c r="B32" t="n">
-        <v>131810</v>
+        <v>162584</v>
       </c>
       <c r="C32" t="s">
         <v>261</v>
@@ -8110,7 +8110,7 @@
         <v>3932</v>
       </c>
       <c r="B33" t="n">
-        <v>131811</v>
+        <v>162585</v>
       </c>
       <c r="C33" t="s">
         <v>268</v>
@@ -8181,7 +8181,7 @@
         <v>3932</v>
       </c>
       <c r="B34" t="n">
-        <v>131812</v>
+        <v>162586</v>
       </c>
       <c r="C34" t="s">
         <v>275</v>
@@ -8246,7 +8246,7 @@
         <v>3932</v>
       </c>
       <c r="B35" t="n">
-        <v>131813</v>
+        <v>162587</v>
       </c>
       <c r="C35" t="s">
         <v>285</v>
@@ -8311,7 +8311,7 @@
         <v>3932</v>
       </c>
       <c r="B36" t="n">
-        <v>131814</v>
+        <v>162588</v>
       </c>
       <c r="C36" t="s">
         <v>294</v>
@@ -8451,7 +8451,7 @@
         <v>3932</v>
       </c>
       <c r="B38" t="n">
-        <v>131815</v>
+        <v>162589</v>
       </c>
       <c r="C38" t="s">
         <v>309</v>
@@ -8518,7 +8518,7 @@
         <v>3932</v>
       </c>
       <c r="B39" t="n">
-        <v>131816</v>
+        <v>162590</v>
       </c>
       <c r="C39" t="s">
         <v>319</v>
@@ -8654,7 +8654,7 @@
         <v>3932</v>
       </c>
       <c r="B41" t="n">
-        <v>131817</v>
+        <v>162591</v>
       </c>
       <c r="C41" t="s">
         <v>336</v>
@@ -8715,7 +8715,7 @@
         <v>3932</v>
       </c>
       <c r="B42" t="n">
-        <v>131818</v>
+        <v>162592</v>
       </c>
       <c r="C42" t="s">
         <v>343</v>
@@ -8782,7 +8782,7 @@
         <v>3932</v>
       </c>
       <c r="B43" t="n">
-        <v>131819</v>
+        <v>162593</v>
       </c>
       <c r="C43" t="s">
         <v>349</v>
@@ -8853,7 +8853,7 @@
         <v>3932</v>
       </c>
       <c r="B44" t="n">
-        <v>131820</v>
+        <v>162594</v>
       </c>
       <c r="C44" t="s">
         <v>359</v>
@@ -8922,7 +8922,7 @@
         <v>3932</v>
       </c>
       <c r="B45" t="n">
-        <v>131821</v>
+        <v>162595</v>
       </c>
       <c r="C45" t="s">
         <v>369</v>
@@ -9062,7 +9062,7 @@
         <v>3932</v>
       </c>
       <c r="B47" t="n">
-        <v>131822</v>
+        <v>162596</v>
       </c>
       <c r="C47" t="s">
         <v>386</v>
@@ -9133,7 +9133,7 @@
         <v>3932</v>
       </c>
       <c r="B48" t="n">
-        <v>131823</v>
+        <v>162597</v>
       </c>
       <c r="C48" t="s">
         <v>395</v>
@@ -9202,7 +9202,7 @@
         <v>3932</v>
       </c>
       <c r="B49" t="n">
-        <v>131824</v>
+        <v>162598</v>
       </c>
       <c r="C49" t="s">
         <v>405</v>
@@ -9336,7 +9336,7 @@
         <v>3932</v>
       </c>
       <c r="B51" t="n">
-        <v>131825</v>
+        <v>131818</v>
       </c>
       <c r="C51" t="s">
         <v>419</v>
@@ -9401,7 +9401,7 @@
         <v>3932</v>
       </c>
       <c r="B52" t="n">
-        <v>131826</v>
+        <v>162599</v>
       </c>
       <c r="C52" t="s">
         <v>428</v>
@@ -9539,7 +9539,7 @@
         <v>3932</v>
       </c>
       <c r="B54" t="n">
-        <v>131827</v>
+        <v>162600</v>
       </c>
       <c r="C54" t="s">
         <v>441</v>
@@ -9610,7 +9610,7 @@
         <v>3932</v>
       </c>
       <c r="B55" t="n">
-        <v>131828</v>
+        <v>162601</v>
       </c>
       <c r="C55" t="s">
         <v>451</v>
@@ -9746,7 +9746,7 @@
         <v>3932</v>
       </c>
       <c r="B57" t="n">
-        <v>131829</v>
+        <v>162602</v>
       </c>
       <c r="C57" t="s">
         <v>468</v>
@@ -9817,7 +9817,7 @@
         <v>3932</v>
       </c>
       <c r="B58" t="n">
-        <v>131830</v>
+        <v>162603</v>
       </c>
       <c r="C58" t="s">
         <v>478</v>
@@ -9886,7 +9886,7 @@
         <v>3932</v>
       </c>
       <c r="B59" t="n">
-        <v>131831</v>
+        <v>162604</v>
       </c>
       <c r="C59" t="s">
         <v>485</v>
@@ -9955,7 +9955,7 @@
         <v>3932</v>
       </c>
       <c r="B60" t="n">
-        <v>131832</v>
+        <v>162605</v>
       </c>
       <c r="C60" t="s">
         <v>495</v>
@@ -10089,7 +10089,7 @@
         <v>3932</v>
       </c>
       <c r="B62" t="n">
-        <v>131833</v>
+        <v>162606</v>
       </c>
       <c r="C62" t="s">
         <v>510</v>
@@ -10296,7 +10296,7 @@
         <v>3932</v>
       </c>
       <c r="B65" t="n">
-        <v>131834</v>
+        <v>162607</v>
       </c>
       <c r="C65" t="s">
         <v>535</v>
@@ -10367,7 +10367,7 @@
         <v>3932</v>
       </c>
       <c r="B66" t="n">
-        <v>131835</v>
+        <v>162608</v>
       </c>
       <c r="C66" t="s">
         <v>542</v>
@@ -10436,7 +10436,7 @@
         <v>3932</v>
       </c>
       <c r="B67" t="n">
-        <v>131836</v>
+        <v>162609</v>
       </c>
       <c r="C67" t="s">
         <v>551</v>
@@ -10507,7 +10507,7 @@
         <v>3932</v>
       </c>
       <c r="B68" t="n">
-        <v>131837</v>
+        <v>162610</v>
       </c>
       <c r="C68" t="s">
         <v>558</v>
@@ -10578,7 +10578,7 @@
         <v>3932</v>
       </c>
       <c r="B69" t="n">
-        <v>131838</v>
+        <v>162611</v>
       </c>
       <c r="C69" t="s">
         <v>568</v>
@@ -10643,7 +10643,7 @@
         <v>3932</v>
       </c>
       <c r="B70" t="n">
-        <v>131839</v>
+        <v>162612</v>
       </c>
       <c r="C70" t="s">
         <v>578</v>
@@ -10714,7 +10714,7 @@
         <v>3932</v>
       </c>
       <c r="B71" t="n">
-        <v>131840</v>
+        <v>162613</v>
       </c>
       <c r="C71" t="s">
         <v>586</v>
@@ -10781,7 +10781,7 @@
         <v>3932</v>
       </c>
       <c r="B72" t="n">
-        <v>131841</v>
+        <v>162614</v>
       </c>
       <c r="C72" t="s">
         <v>593</v>
@@ -10917,7 +10917,7 @@
         <v>3932</v>
       </c>
       <c r="B74" t="n">
-        <v>131842</v>
+        <v>162615</v>
       </c>
       <c r="C74" t="s">
         <v>606</v>
@@ -11051,7 +11051,7 @@
         <v>3932</v>
       </c>
       <c r="B76" t="n">
-        <v>131843</v>
+        <v>162616</v>
       </c>
       <c r="C76" t="s">
         <v>623</v>
@@ -11116,7 +11116,7 @@
         <v>3932</v>
       </c>
       <c r="B77" t="n">
-        <v>131844</v>
+        <v>162617</v>
       </c>
       <c r="C77" t="s">
         <v>631</v>
@@ -11246,7 +11246,7 @@
         <v>3932</v>
       </c>
       <c r="B79" t="n">
-        <v>131845</v>
+        <v>162618</v>
       </c>
       <c r="C79" t="s">
         <v>649</v>
@@ -11315,7 +11315,7 @@
         <v>3932</v>
       </c>
       <c r="B80" t="n">
-        <v>131846</v>
+        <v>162619</v>
       </c>
       <c r="C80" t="s">
         <v>658</v>
@@ -11380,7 +11380,7 @@
         <v>3932</v>
       </c>
       <c r="B81" t="n">
-        <v>131847</v>
+        <v>162620</v>
       </c>
       <c r="C81" t="s">
         <v>665</v>
@@ -11512,7 +11512,7 @@
         <v>3932</v>
       </c>
       <c r="B83" t="n">
-        <v>131848</v>
+        <v>162621</v>
       </c>
       <c r="C83" t="s">
         <v>680</v>
@@ -11713,7 +11713,7 @@
         <v>3932</v>
       </c>
       <c r="B86" t="n">
-        <v>131849</v>
+        <v>162622</v>
       </c>
       <c r="C86" t="s">
         <v>699</v>
@@ -11774,7 +11774,7 @@
         <v>3932</v>
       </c>
       <c r="B87" t="n">
-        <v>131850</v>
+        <v>162623</v>
       </c>
       <c r="C87" t="s">
         <v>706</v>
@@ -11841,7 +11841,7 @@
         <v>3932</v>
       </c>
       <c r="B88" t="n">
-        <v>131851</v>
+        <v>162624</v>
       </c>
       <c r="C88" t="s">
         <v>712</v>
@@ -11902,7 +11902,7 @@
         <v>3932</v>
       </c>
       <c r="B89" t="n">
-        <v>131852</v>
+        <v>162625</v>
       </c>
       <c r="C89" t="s">
         <v>719</v>
@@ -12036,7 +12036,7 @@
         <v>3932</v>
       </c>
       <c r="B91" t="n">
-        <v>131853</v>
+        <v>162626</v>
       </c>
       <c r="C91" t="s">
         <v>734</v>
@@ -12101,7 +12101,7 @@
         <v>3932</v>
       </c>
       <c r="B92" t="n">
-        <v>131854</v>
+        <v>162627</v>
       </c>
       <c r="C92" t="s">
         <v>742</v>
@@ -12166,7 +12166,7 @@
         <v>3932</v>
       </c>
       <c r="B93" t="n">
-        <v>131855</v>
+        <v>162628</v>
       </c>
       <c r="C93" t="s">
         <v>749</v>
@@ -12294,7 +12294,7 @@
         <v>3932</v>
       </c>
       <c r="B95" t="n">
-        <v>131856</v>
+        <v>162629</v>
       </c>
       <c r="C95" t="s">
         <v>763</v>
@@ -12426,7 +12426,7 @@
         <v>3932</v>
       </c>
       <c r="B97" t="n">
-        <v>131857</v>
+        <v>162630</v>
       </c>
       <c r="C97" t="s">
         <v>777</v>
@@ -12497,7 +12497,7 @@
         <v>3932</v>
       </c>
       <c r="B98" t="n">
-        <v>131858</v>
+        <v>162631</v>
       </c>
       <c r="C98" t="s">
         <v>783</v>
@@ -12568,7 +12568,7 @@
         <v>3932</v>
       </c>
       <c r="B99" t="n">
-        <v>131859</v>
+        <v>162632</v>
       </c>
       <c r="C99" t="s">
         <v>789</v>
@@ -12643,7 +12643,7 @@
         <v>3932</v>
       </c>
       <c r="B100" t="n">
-        <v>131860</v>
+        <v>162633</v>
       </c>
       <c r="C100" t="s">
         <v>798</v>
@@ -12710,7 +12710,7 @@
         <v>3932</v>
       </c>
       <c r="B101" t="n">
-        <v>131861</v>
+        <v>162634</v>
       </c>
       <c r="C101" t="s">
         <v>804</v>
@@ -12775,7 +12775,7 @@
         <v>3932</v>
       </c>
       <c r="B102" t="n">
-        <v>131862</v>
+        <v>162635</v>
       </c>
       <c r="C102" t="s">
         <v>814</v>
@@ -12846,7 +12846,7 @@
         <v>3932</v>
       </c>
       <c r="B103" t="n">
-        <v>131863</v>
+        <v>162636</v>
       </c>
       <c r="C103" t="s">
         <v>822</v>
@@ -12919,7 +12919,7 @@
         <v>3932</v>
       </c>
       <c r="B104" t="n">
-        <v>131864</v>
+        <v>162637</v>
       </c>
       <c r="C104" t="s">
         <v>831</v>
@@ -12994,7 +12994,7 @@
         <v>3932</v>
       </c>
       <c r="B105" t="n">
-        <v>131865</v>
+        <v>162638</v>
       </c>
       <c r="C105" t="s">
         <v>840</v>
@@ -13055,7 +13055,7 @@
         <v>3932</v>
       </c>
       <c r="B106" t="n">
-        <v>131866</v>
+        <v>162639</v>
       </c>
       <c r="C106" t="s">
         <v>847</v>
@@ -13126,7 +13126,7 @@
         <v>3932</v>
       </c>
       <c r="B107" t="n">
-        <v>131867</v>
+        <v>162640</v>
       </c>
       <c r="C107" t="s">
         <v>855</v>
@@ -13197,7 +13197,7 @@
         <v>3932</v>
       </c>
       <c r="B108" t="n">
-        <v>131868</v>
+        <v>162641</v>
       </c>
       <c r="C108" t="s">
         <v>863</v>
@@ -13262,7 +13262,7 @@
         <v>3932</v>
       </c>
       <c r="B109" t="n">
-        <v>131869</v>
+        <v>162642</v>
       </c>
       <c r="C109" t="s">
         <v>872</v>
@@ -13408,7 +13408,7 @@
         <v>3932</v>
       </c>
       <c r="B111" t="n">
-        <v>131870</v>
+        <v>162643</v>
       </c>
       <c r="C111" t="s">
         <v>889</v>
@@ -13558,7 +13558,7 @@
         <v>3932</v>
       </c>
       <c r="B113" t="n">
-        <v>131871</v>
+        <v>162644</v>
       </c>
       <c r="C113" t="s">
         <v>908</v>
@@ -13633,7 +13633,7 @@
         <v>3932</v>
       </c>
       <c r="B114" t="n">
-        <v>131872</v>
+        <v>162645</v>
       </c>
       <c r="C114" t="s">
         <v>918</v>
@@ -13708,7 +13708,7 @@
         <v>3932</v>
       </c>
       <c r="B115" t="n">
-        <v>131873</v>
+        <v>162646</v>
       </c>
       <c r="C115" t="s">
         <v>926</v>
@@ -13783,7 +13783,7 @@
         <v>3932</v>
       </c>
       <c r="B116" t="n">
-        <v>131874</v>
+        <v>162647</v>
       </c>
       <c r="C116" t="s">
         <v>936</v>
@@ -13858,7 +13858,7 @@
         <v>3932</v>
       </c>
       <c r="B117" t="n">
-        <v>131875</v>
+        <v>162648</v>
       </c>
       <c r="C117" t="s">
         <v>946</v>
@@ -13933,7 +13933,7 @@
         <v>3932</v>
       </c>
       <c r="B118" t="n">
-        <v>131876</v>
+        <v>162649</v>
       </c>
       <c r="C118" t="s">
         <v>953</v>
@@ -13994,7 +13994,7 @@
         <v>3932</v>
       </c>
       <c r="B119" t="n">
-        <v>131877</v>
+        <v>162650</v>
       </c>
       <c r="C119" t="s">
         <v>960</v>
@@ -14219,7 +14219,7 @@
         <v>3932</v>
       </c>
       <c r="B122" t="n">
-        <v>131878</v>
+        <v>162651</v>
       </c>
       <c r="C122" t="s">
         <v>987</v>
@@ -14290,7 +14290,7 @@
         <v>3932</v>
       </c>
       <c r="B123" t="n">
-        <v>131879</v>
+        <v>162652</v>
       </c>
       <c r="C123" t="s">
         <v>994</v>
@@ -14357,7 +14357,7 @@
         <v>3932</v>
       </c>
       <c r="B124" t="n">
-        <v>131880</v>
+        <v>162653</v>
       </c>
       <c r="C124" t="s">
         <v>1001</v>
@@ -14428,7 +14428,7 @@
         <v>3932</v>
       </c>
       <c r="B125" t="n">
-        <v>131881</v>
+        <v>162654</v>
       </c>
       <c r="C125" t="s">
         <v>1010</v>
@@ -14499,7 +14499,7 @@
         <v>3932</v>
       </c>
       <c r="B126" t="n">
-        <v>131882</v>
+        <v>162655</v>
       </c>
       <c r="C126" t="s">
         <v>1018</v>
@@ -14574,7 +14574,7 @@
         <v>3932</v>
       </c>
       <c r="B127" t="n">
-        <v>131883</v>
+        <v>162656</v>
       </c>
       <c r="C127" t="s">
         <v>1027</v>
@@ -14874,7 +14874,7 @@
         <v>3932</v>
       </c>
       <c r="B131" t="n">
-        <v>131884</v>
+        <v>162657</v>
       </c>
       <c r="C131" t="s">
         <v>1065</v>
@@ -14939,7 +14939,7 @@
         <v>3932</v>
       </c>
       <c r="B132" t="n">
-        <v>131885</v>
+        <v>162658</v>
       </c>
       <c r="C132" t="s">
         <v>1075</v>
@@ -15010,7 +15010,7 @@
         <v>3932</v>
       </c>
       <c r="B133" t="n">
-        <v>131886</v>
+        <v>162659</v>
       </c>
       <c r="C133" t="s">
         <v>1084</v>
@@ -15085,7 +15085,7 @@
         <v>3932</v>
       </c>
       <c r="B134" t="n">
-        <v>131887</v>
+        <v>162660</v>
       </c>
       <c r="C134" t="s">
         <v>1092</v>
@@ -15160,7 +15160,7 @@
         <v>3932</v>
       </c>
       <c r="B135" t="n">
-        <v>131888</v>
+        <v>162661</v>
       </c>
       <c r="C135" t="s">
         <v>1101</v>
@@ -15231,7 +15231,7 @@
         <v>3932</v>
       </c>
       <c r="B136" t="n">
-        <v>131824</v>
+        <v>131818</v>
       </c>
       <c r="C136" t="s">
         <v>419</v>
@@ -15302,7 +15302,7 @@
         <v>3932</v>
       </c>
       <c r="B137" t="n">
-        <v>131889</v>
+        <v>162662</v>
       </c>
       <c r="C137" t="s">
         <v>1116</v>
@@ -15448,7 +15448,7 @@
         <v>3932</v>
       </c>
       <c r="B139" t="n">
-        <v>131890</v>
+        <v>162663</v>
       </c>
       <c r="C139" t="s">
         <v>1135</v>
@@ -15523,7 +15523,7 @@
         <v>3932</v>
       </c>
       <c r="B140" t="n">
-        <v>131891</v>
+        <v>162664</v>
       </c>
       <c r="C140" t="s">
         <v>1144</v>
@@ -15594,7 +15594,7 @@
         <v>3932</v>
       </c>
       <c r="B141" t="n">
-        <v>131892</v>
+        <v>162665</v>
       </c>
       <c r="C141" t="s">
         <v>1153</v>
@@ -15665,7 +15665,7 @@
         <v>3932</v>
       </c>
       <c r="B142" t="n">
-        <v>131893</v>
+        <v>162666</v>
       </c>
       <c r="C142" t="s">
         <v>1160</v>
@@ -15736,7 +15736,7 @@
         <v>3932</v>
       </c>
       <c r="B143" t="n">
-        <v>131894</v>
+        <v>131822</v>
       </c>
       <c r="C143" t="s">
         <v>1167</v>
@@ -15811,7 +15811,7 @@
         <v>3932</v>
       </c>
       <c r="B144" t="n">
-        <v>131895</v>
+        <v>162667</v>
       </c>
       <c r="C144" t="s">
         <v>1177</v>
@@ -15886,7 +15886,7 @@
         <v>3932</v>
       </c>
       <c r="B145" t="n">
-        <v>131896</v>
+        <v>162668</v>
       </c>
       <c r="C145" t="s">
         <v>1184</v>
@@ -15961,7 +15961,7 @@
         <v>3932</v>
       </c>
       <c r="B146" t="n">
-        <v>131897</v>
+        <v>162669</v>
       </c>
       <c r="C146" t="s">
         <v>1193</v>
@@ -16036,7 +16036,7 @@
         <v>3932</v>
       </c>
       <c r="B147" t="n">
-        <v>131898</v>
+        <v>162670</v>
       </c>
       <c r="C147" t="s">
         <v>1203</v>
@@ -16186,7 +16186,7 @@
         <v>3932</v>
       </c>
       <c r="B149" t="n">
-        <v>131899</v>
+        <v>131824</v>
       </c>
       <c r="C149" t="s">
         <v>1221</v>
@@ -16257,7 +16257,7 @@
         <v>3932</v>
       </c>
       <c r="B150" t="n">
-        <v>131900</v>
+        <v>162671</v>
       </c>
       <c r="C150" t="s">
         <v>1229</v>
@@ -16332,7 +16332,7 @@
         <v>3932</v>
       </c>
       <c r="B151" t="n">
-        <v>131901</v>
+        <v>162672</v>
       </c>
       <c r="C151" t="s">
         <v>1238</v>
@@ -16407,7 +16407,7 @@
         <v>3932</v>
       </c>
       <c r="B152" t="n">
-        <v>131902</v>
+        <v>162673</v>
       </c>
       <c r="C152" t="s">
         <v>1244</v>
@@ -16478,7 +16478,7 @@
         <v>3932</v>
       </c>
       <c r="B153" t="n">
-        <v>131903</v>
+        <v>162674</v>
       </c>
       <c r="C153" t="s">
         <v>1253</v>
@@ -16624,7 +16624,7 @@
         <v>3932</v>
       </c>
       <c r="B155" t="n">
-        <v>131904</v>
+        <v>162675</v>
       </c>
       <c r="C155" t="s">
         <v>1267</v>
@@ -16699,7 +16699,7 @@
         <v>3932</v>
       </c>
       <c r="B156" t="n">
-        <v>131893</v>
+        <v>131822</v>
       </c>
       <c r="C156" t="s">
         <v>1167</v>
@@ -16774,7 +16774,7 @@
         <v>3932</v>
       </c>
       <c r="B157" t="n">
-        <v>131905</v>
+        <v>162676</v>
       </c>
       <c r="C157" t="s">
         <v>1282</v>
@@ -16849,7 +16849,7 @@
         <v>3932</v>
       </c>
       <c r="B158" t="n">
-        <v>131906</v>
+        <v>162677</v>
       </c>
       <c r="C158" t="s">
         <v>1288</v>
@@ -16924,7 +16924,7 @@
         <v>3932</v>
       </c>
       <c r="B159" t="n">
-        <v>131907</v>
+        <v>162678</v>
       </c>
       <c r="C159" t="s">
         <v>1298</v>
@@ -17074,7 +17074,7 @@
         <v>3932</v>
       </c>
       <c r="B161" t="n">
-        <v>131908</v>
+        <v>162679</v>
       </c>
       <c r="C161" t="s">
         <v>1316</v>
@@ -17145,7 +17145,7 @@
         <v>3932</v>
       </c>
       <c r="B162" t="n">
-        <v>131909</v>
+        <v>162680</v>
       </c>
       <c r="C162" t="s">
         <v>1325</v>
@@ -17220,7 +17220,7 @@
         <v>3932</v>
       </c>
       <c r="B163" t="n">
-        <v>131910</v>
+        <v>162681</v>
       </c>
       <c r="C163" t="s">
         <v>1335</v>
@@ -17295,7 +17295,7 @@
         <v>3932</v>
       </c>
       <c r="B164" t="n">
-        <v>131911</v>
+        <v>162682</v>
       </c>
       <c r="C164" t="s">
         <v>1344</v>
@@ -17368,7 +17368,7 @@
         <v>3932</v>
       </c>
       <c r="B165" t="n">
-        <v>131912</v>
+        <v>162683</v>
       </c>
       <c r="C165" t="s">
         <v>1351</v>
@@ -17439,7 +17439,7 @@
         <v>3932</v>
       </c>
       <c r="B166" t="n">
-        <v>131913</v>
+        <v>162684</v>
       </c>
       <c r="C166" t="s">
         <v>1361</v>
@@ -17510,7 +17510,7 @@
         <v>3932</v>
       </c>
       <c r="B167" t="n">
-        <v>131914</v>
+        <v>162685</v>
       </c>
       <c r="C167" t="s">
         <v>1370</v>
@@ -17577,7 +17577,7 @@
         <v>3932</v>
       </c>
       <c r="B168" t="n">
-        <v>131915</v>
+        <v>162686</v>
       </c>
       <c r="C168" t="s">
         <v>1378</v>
@@ -17648,7 +17648,7 @@
         <v>3932</v>
       </c>
       <c r="B169" t="n">
-        <v>131916</v>
+        <v>162687</v>
       </c>
       <c r="C169" t="s">
         <v>1387</v>
@@ -17719,7 +17719,7 @@
         <v>3932</v>
       </c>
       <c r="B170" t="n">
-        <v>131917</v>
+        <v>162688</v>
       </c>
       <c r="C170" t="s">
         <v>1397</v>
@@ -17794,7 +17794,7 @@
         <v>3932</v>
       </c>
       <c r="B171" t="n">
-        <v>131918</v>
+        <v>162689</v>
       </c>
       <c r="C171" t="s">
         <v>1407</v>
@@ -17869,7 +17869,7 @@
         <v>3932</v>
       </c>
       <c r="B172" t="n">
-        <v>131919</v>
+        <v>162690</v>
       </c>
       <c r="C172" t="s">
         <v>1416</v>
@@ -17944,7 +17944,7 @@
         <v>3932</v>
       </c>
       <c r="B173" t="n">
-        <v>131920</v>
+        <v>162691</v>
       </c>
       <c r="C173" t="s">
         <v>1425</v>
@@ -18015,7 +18015,7 @@
         <v>3932</v>
       </c>
       <c r="B174" t="n">
-        <v>131898</v>
+        <v>131824</v>
       </c>
       <c r="C174" t="s">
         <v>1221</v>
@@ -18090,7 +18090,7 @@
         <v>3932</v>
       </c>
       <c r="B175" t="n">
-        <v>131921</v>
+        <v>162692</v>
       </c>
       <c r="C175" t="s">
         <v>1440</v>
@@ -18165,7 +18165,7 @@
         <v>3932</v>
       </c>
       <c r="B176" t="n">
-        <v>131922</v>
+        <v>162693</v>
       </c>
       <c r="C176" t="s">
         <v>1449</v>
@@ -18240,7 +18240,7 @@
         <v>3932</v>
       </c>
       <c r="B177" t="n">
-        <v>131923</v>
+        <v>162694</v>
       </c>
       <c r="C177" t="s">
         <v>1459</v>
@@ -18315,7 +18315,7 @@
         <v>3932</v>
       </c>
       <c r="B178" t="n">
-        <v>131924</v>
+        <v>162695</v>
       </c>
       <c r="C178" t="s">
         <v>1468</v>
@@ -18390,7 +18390,7 @@
         <v>3932</v>
       </c>
       <c r="B179" t="n">
-        <v>131925</v>
+        <v>162696</v>
       </c>
       <c r="C179" t="s">
         <v>1478</v>
@@ -18465,7 +18465,7 @@
         <v>3932</v>
       </c>
       <c r="B180" t="n">
-        <v>131926</v>
+        <v>162697</v>
       </c>
       <c r="C180" t="s">
         <v>1488</v>
@@ -18540,7 +18540,7 @@
         <v>3932</v>
       </c>
       <c r="B181" t="n">
-        <v>131927</v>
+        <v>162698</v>
       </c>
       <c r="C181" t="s">
         <v>1498</v>
@@ -18615,7 +18615,7 @@
         <v>3932</v>
       </c>
       <c r="B182" t="n">
-        <v>131928</v>
+        <v>162699</v>
       </c>
       <c r="C182" t="s">
         <v>1507</v>
@@ -18690,7 +18690,7 @@
         <v>3932</v>
       </c>
       <c r="B183" t="n">
-        <v>131929</v>
+        <v>162700</v>
       </c>
       <c r="C183" t="s">
         <v>1517</v>
@@ -18765,7 +18765,7 @@
         <v>3932</v>
       </c>
       <c r="B184" t="n">
-        <v>131930</v>
+        <v>162701</v>
       </c>
       <c r="C184" t="s">
         <v>1526</v>
@@ -18840,7 +18840,7 @@
         <v>3932</v>
       </c>
       <c r="B185" t="n">
-        <v>131931</v>
+        <v>162702</v>
       </c>
       <c r="C185" t="s">
         <v>1535</v>
@@ -18915,7 +18915,7 @@
         <v>3932</v>
       </c>
       <c r="B186" t="n">
-        <v>131932</v>
+        <v>162703</v>
       </c>
       <c r="C186" t="s">
         <v>1545</v>
@@ -18990,7 +18990,7 @@
         <v>3932</v>
       </c>
       <c r="B187" t="n">
-        <v>131898</v>
+        <v>131824</v>
       </c>
       <c r="C187" t="s">
         <v>1221</v>
@@ -19055,7 +19055,7 @@
         <v>3932</v>
       </c>
       <c r="B188" t="n">
-        <v>131933</v>
+        <v>162704</v>
       </c>
       <c r="C188" t="s">
         <v>1564</v>
@@ -19130,7 +19130,7 @@
         <v>3932</v>
       </c>
       <c r="B189" t="n">
-        <v>131934</v>
+        <v>162705</v>
       </c>
       <c r="C189" t="s">
         <v>1574</v>
@@ -19205,7 +19205,7 @@
         <v>3932</v>
       </c>
       <c r="B190" t="n">
-        <v>131935</v>
+        <v>162706</v>
       </c>
       <c r="C190" t="s">
         <v>1584</v>
@@ -19280,7 +19280,7 @@
         <v>3932</v>
       </c>
       <c r="B191" t="n">
-        <v>131936</v>
+        <v>162707</v>
       </c>
       <c r="C191" t="s">
         <v>1594</v>
@@ -19355,7 +19355,7 @@
         <v>3932</v>
       </c>
       <c r="B192" t="n">
-        <v>131937</v>
+        <v>162708</v>
       </c>
       <c r="C192" t="s">
         <v>1604</v>
@@ -19430,7 +19430,7 @@
         <v>3932</v>
       </c>
       <c r="B193" t="n">
-        <v>131938</v>
+        <v>162709</v>
       </c>
       <c r="C193" t="s">
         <v>1610</v>
@@ -19505,7 +19505,7 @@
         <v>3932</v>
       </c>
       <c r="B194" t="n">
-        <v>131939</v>
+        <v>162710</v>
       </c>
       <c r="C194" t="s">
         <v>1620</v>
@@ -19572,7 +19572,7 @@
         <v>3932</v>
       </c>
       <c r="B195" t="n">
-        <v>131893</v>
+        <v>131822</v>
       </c>
       <c r="C195" t="s">
         <v>1167</v>
@@ -19647,7 +19647,7 @@
         <v>3932</v>
       </c>
       <c r="B196" t="n">
-        <v>131940</v>
+        <v>162711</v>
       </c>
       <c r="C196" t="s">
         <v>1638</v>
@@ -19722,7 +19722,7 @@
         <v>3932</v>
       </c>
       <c r="B197" t="n">
-        <v>131941</v>
+        <v>162712</v>
       </c>
       <c r="C197" t="s">
         <v>1648</v>
@@ -19787,7 +19787,7 @@
         <v>3932</v>
       </c>
       <c r="B198" t="n">
-        <v>131942</v>
+        <v>162713</v>
       </c>
       <c r="C198" t="s">
         <v>1658</v>
@@ -19862,7 +19862,7 @@
         <v>3932</v>
       </c>
       <c r="B199" t="n">
-        <v>131943</v>
+        <v>162714</v>
       </c>
       <c r="C199" t="s">
         <v>1668</v>
@@ -19937,7 +19937,7 @@
         <v>3932</v>
       </c>
       <c r="B200" t="n">
-        <v>131944</v>
+        <v>148543</v>
       </c>
       <c r="C200" t="s">
         <v>1675</v>
@@ -20008,7 +20008,7 @@
         <v>3932</v>
       </c>
       <c r="B201" t="n">
-        <v>131945</v>
+        <v>162715</v>
       </c>
       <c r="C201" t="s">
         <v>1682</v>
@@ -20075,7 +20075,7 @@
         <v>3932</v>
       </c>
       <c r="B202" t="n">
-        <v>131946</v>
+        <v>162716</v>
       </c>
       <c r="C202" t="s">
         <v>1689</v>
@@ -20219,7 +20219,7 @@
         <v>3932</v>
       </c>
       <c r="B204" t="n">
-        <v>131947</v>
+        <v>162717</v>
       </c>
       <c r="C204" t="s">
         <v>1707</v>
@@ -20290,7 +20290,7 @@
         <v>3932</v>
       </c>
       <c r="B205" t="n">
-        <v>131948</v>
+        <v>162718</v>
       </c>
       <c r="C205" t="s">
         <v>1714</v>
@@ -20347,7 +20347,7 @@
         <v>3932</v>
       </c>
       <c r="B206" t="n">
-        <v>131949</v>
+        <v>162719</v>
       </c>
       <c r="C206" t="s">
         <v>1721</v>
@@ -20418,7 +20418,7 @@
         <v>3932</v>
       </c>
       <c r="B207" t="n">
-        <v>131950</v>
+        <v>162720</v>
       </c>
       <c r="C207" t="s">
         <v>1729</v>
@@ -20489,7 +20489,7 @@
         <v>3932</v>
       </c>
       <c r="B208" t="n">
-        <v>131951</v>
+        <v>162721</v>
       </c>
       <c r="C208" t="s">
         <v>1735</v>
@@ -20558,7 +20558,7 @@
         <v>3932</v>
       </c>
       <c r="B209" t="n">
-        <v>131952</v>
+        <v>162722</v>
       </c>
       <c r="C209" t="s">
         <v>1743</v>
@@ -20629,7 +20629,7 @@
         <v>3932</v>
       </c>
       <c r="B210" t="n">
-        <v>131953</v>
+        <v>162723</v>
       </c>
       <c r="C210" t="s">
         <v>1750</v>
@@ -20696,7 +20696,7 @@
         <v>3932</v>
       </c>
       <c r="B211" t="n">
-        <v>131954</v>
+        <v>162724</v>
       </c>
       <c r="C211" t="s">
         <v>1757</v>
@@ -20765,7 +20765,7 @@
         <v>3932</v>
       </c>
       <c r="B212" t="n">
-        <v>131955</v>
+        <v>162725</v>
       </c>
       <c r="C212" t="s">
         <v>1764</v>
@@ -20830,7 +20830,7 @@
         <v>3932</v>
       </c>
       <c r="B213" t="n">
-        <v>131956</v>
+        <v>162726</v>
       </c>
       <c r="C213" t="s">
         <v>1771</v>
